--- a/teaching/traditional_assets/database/data/brazil/brazil_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_reinsurance.xlsx
@@ -590,119 +590,122 @@
           <t>Reinsurance</t>
         </is>
       </c>
-      <c r="F2">
-        <v>0.244</v>
+      <c r="D2">
+        <v>0.142</v>
+      </c>
+      <c r="E2">
+        <v>-0.158</v>
       </c>
       <c r="G2">
-        <v>0.2459406798008227</v>
+        <v>0.3081383201002925</v>
       </c>
       <c r="H2">
-        <v>0.2459406798008227</v>
+        <v>0.3081383201002925</v>
       </c>
       <c r="I2">
-        <v>0.2633037453994371</v>
+        <v>0.06963017133305474</v>
       </c>
       <c r="J2">
-        <v>0.2289873574781904</v>
+        <v>0.06963017133305474</v>
       </c>
       <c r="K2">
-        <v>361</v>
+        <v>54.6</v>
       </c>
       <c r="L2">
-        <v>0.1563108898029877</v>
+        <v>0.02852068533221897</v>
       </c>
       <c r="M2">
-        <v>217.9</v>
+        <v>83.5</v>
       </c>
       <c r="N2">
-        <v>0.02413281353829796</v>
+        <v>0.04222930258433217</v>
       </c>
       <c r="O2">
-        <v>0.603601108033241</v>
+        <v>1.529304029304029</v>
       </c>
       <c r="P2">
-        <v>217.9</v>
+        <v>35.3</v>
       </c>
       <c r="Q2">
-        <v>0.02413281353829796</v>
+        <v>0.01785262732008294</v>
       </c>
       <c r="R2">
-        <v>0.603601108033241</v>
+        <v>0.6465201465201464</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.577245508982036</v>
       </c>
       <c r="U2">
-        <v>13.9</v>
+        <v>5.66</v>
       </c>
       <c r="V2">
-        <v>0.001539449785141541</v>
+        <v>0.002862489253021798</v>
       </c>
       <c r="W2">
-        <v>0.3840017019466014</v>
+        <v>0.053377651774367</v>
       </c>
       <c r="X2">
-        <v>0.0943070750455495</v>
+        <v>0.1048847983307459</v>
       </c>
       <c r="Y2">
-        <v>0.289694626901052</v>
+        <v>-0.05150714655637888</v>
       </c>
       <c r="Z2">
-        <v>2.475640214816324</v>
+        <v>1.891662220114227</v>
       </c>
       <c r="AA2">
-        <v>0.5668903108575294</v>
+        <v>0.1317167644908203</v>
       </c>
       <c r="AB2">
-        <v>0.09428947127790711</v>
+        <v>0.1048218937552831</v>
       </c>
       <c r="AC2">
-        <v>0.4726008395796223</v>
+        <v>0.02689487073553729</v>
       </c>
       <c r="AD2">
-        <v>3.02</v>
+        <v>1.77</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.02</v>
+        <v>1.77</v>
       </c>
       <c r="AG2">
-        <v>-10.88</v>
+        <v>-3.89</v>
       </c>
       <c r="AH2">
-        <v>0.0003343585519396117</v>
+        <v>0.0008943594718731526</v>
       </c>
       <c r="AI2">
-        <v>0.00294369931378665</v>
+        <v>0.002035254751802408</v>
       </c>
       <c r="AJ2">
-        <v>-0.001206433127234341</v>
+        <v>-0.001971207199720282</v>
       </c>
       <c r="AK2">
-        <v>-0.01075077567637003</v>
+        <v>-0.004502262705292763</v>
       </c>
       <c r="AL2">
-        <v>188.6</v>
+        <v>130.5</v>
       </c>
       <c r="AM2">
-        <v>188.6</v>
+        <v>130.5</v>
       </c>
       <c r="AN2">
-        <v>0.004983498349834983</v>
+        <v>0.01314031180400891</v>
       </c>
       <c r="AO2">
-        <v>3.224284199363733</v>
+        <v>1.021455938697318</v>
       </c>
       <c r="AP2">
-        <v>-0.01795379537953795</v>
+        <v>-0.02887899034892354</v>
       </c>
       <c r="AQ2">
-        <v>3.224284199363733</v>
+        <v>1.021455938697318</v>
       </c>
     </row>
     <row r="3">
@@ -721,119 +724,122 @@
           <t>Reinsurance</t>
         </is>
       </c>
-      <c r="F3">
-        <v>0.244</v>
+      <c r="D3">
+        <v>0.142</v>
+      </c>
+      <c r="E3">
+        <v>-0.158</v>
       </c>
       <c r="G3">
-        <v>0.2459406798008227</v>
+        <v>0.3081383201002925</v>
       </c>
       <c r="H3">
-        <v>0.2459406798008227</v>
+        <v>0.3081383201002925</v>
       </c>
       <c r="I3">
-        <v>0.2633037453994371</v>
+        <v>0.06963017133305474</v>
       </c>
       <c r="J3">
-        <v>0.2289873574781904</v>
+        <v>0.06963017133305474</v>
       </c>
       <c r="K3">
-        <v>361</v>
+        <v>54.6</v>
       </c>
       <c r="L3">
-        <v>0.1563108898029877</v>
+        <v>0.02852068533221897</v>
       </c>
       <c r="M3">
-        <v>217.9</v>
+        <v>83.5</v>
       </c>
       <c r="N3">
-        <v>0.02413281353829796</v>
+        <v>0.04222930258433217</v>
       </c>
       <c r="O3">
-        <v>0.603601108033241</v>
+        <v>1.529304029304029</v>
       </c>
       <c r="P3">
-        <v>217.9</v>
+        <v>35.3</v>
       </c>
       <c r="Q3">
-        <v>0.02413281353829796</v>
+        <v>0.01785262732008294</v>
       </c>
       <c r="R3">
-        <v>0.603601108033241</v>
+        <v>0.6465201465201464</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.577245508982036</v>
       </c>
       <c r="U3">
-        <v>13.9</v>
+        <v>5.66</v>
       </c>
       <c r="V3">
-        <v>0.001539449785141541</v>
+        <v>0.002862489253021798</v>
       </c>
       <c r="W3">
-        <v>0.3840017019466014</v>
+        <v>0.053377651774367</v>
       </c>
       <c r="X3">
-        <v>0.0943070750455495</v>
+        <v>0.1048847983307459</v>
       </c>
       <c r="Y3">
-        <v>0.289694626901052</v>
+        <v>-0.05150714655637888</v>
       </c>
       <c r="Z3">
-        <v>2.475640214816324</v>
+        <v>1.891662220114227</v>
       </c>
       <c r="AA3">
-        <v>0.5668903108575294</v>
+        <v>0.1317167644908203</v>
       </c>
       <c r="AB3">
-        <v>0.09428947127790711</v>
+        <v>0.1048218937552831</v>
       </c>
       <c r="AC3">
-        <v>0.4726008395796223</v>
+        <v>0.02689487073553729</v>
       </c>
       <c r="AD3">
-        <v>3.02</v>
+        <v>1.77</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.02</v>
+        <v>1.77</v>
       </c>
       <c r="AG3">
-        <v>-10.88</v>
+        <v>-3.89</v>
       </c>
       <c r="AH3">
-        <v>0.0003343585519396117</v>
+        <v>0.0008943594718731526</v>
       </c>
       <c r="AI3">
-        <v>0.00294369931378665</v>
+        <v>0.002035254751802408</v>
       </c>
       <c r="AJ3">
-        <v>-0.001206433127234341</v>
+        <v>-0.001971207199720282</v>
       </c>
       <c r="AK3">
-        <v>-0.01075077567637003</v>
+        <v>-0.004502262705292763</v>
       </c>
       <c r="AL3">
-        <v>188.6</v>
+        <v>130.5</v>
       </c>
       <c r="AM3">
-        <v>188.6</v>
+        <v>130.5</v>
       </c>
       <c r="AN3">
-        <v>0.004983498349834983</v>
+        <v>0.01314031180400891</v>
       </c>
       <c r="AO3">
-        <v>3.224284199363733</v>
+        <v>1.021455938697318</v>
       </c>
       <c r="AP3">
-        <v>-0.01795379537953795</v>
+        <v>-0.02887899034892354</v>
       </c>
       <c r="AQ3">
-        <v>3.224284199363733</v>
+        <v>1.021455938697318</v>
       </c>
     </row>
   </sheetData>
